--- a/report/zdzy.xlsx
+++ b/report/zdzy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="281">
   <si>
     <t xml:space="preserve">        zs = 0.02</t>
   </si>
@@ -587,6 +587,3860 @@
   </si>
   <si>
     <t>均值: 1.0036</t>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0035</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0018</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['lower'] = option['tupo_low'] &amp; option['high_1liandi'] </t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0036</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:13, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0014</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0008</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:10, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:12, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['higher'] = option['tupo_high'] &amp; option['low_1liangao'] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:11, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0026</t>
+    </r>
+  </si>
+  <si>
+    <t>最大连亏次数:11, 平均连亏:3.0, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:15, 平均连亏:3.1, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:28, 平均连亏:4.6, 连亏中位数:3.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:22, 平均连亏:3.2, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:15, 平均连亏:3.4, 连亏中位数:3.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:9, 平均连亏:2.9, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:10, 平均连亏:3.0, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:15, 平均连亏:3.2, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:18, 平均连亏:3.2, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['lower'] = option['tupo_low'] &amp; option['high_2liandi']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['higher'] = option['tupo_high'] &amp; option['low_2liangao'] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:11, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['higher'] = option['tupo_high'] &amp; option['low_2liangao'] &amp; option['close_higher_than_ma_lastday']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['lower'] = option['tupo_low'] &amp; option['high_2liandi'] &amp; option['close_lower_than_ma_lastday']</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0022</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:11, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0054</t>
+    </r>
+  </si>
+  <si>
+    <t>success rate: 0.61</t>
+  </si>
+  <si>
+    <t>exp 0.0044</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:14, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0034</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:11, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.004</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0012</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['higher'] = option['tupo_high'] &amp; option['high_2liangao'] &amp; option['close_higher_than_ma_lastday']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['lower'] = option['tupo_low'] &amp; option['low_2liandi'] &amp; option['close_lower_than_ma_lastday']</t>
+  </si>
+  <si>
+    <t>以下都是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0063</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0052</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:13, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0028</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['higher'] = option['tupo_high']  &amp; option['higher_than_ma_lastday'] &amp; option['maup_lastday']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['lower'] = option['tupo_low']  &amp; option['lower_than_ma_lastday'] &amp; option['madown_lastday'] </t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:19, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:4.2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:4.0</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0032</t>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0045</t>
+    </r>
+  </si>
+  <si>
+    <t>success rate: 0.59</t>
+  </si>
+  <si>
+    <t>exp 0.0037</t>
+  </si>
+  <si>
+    <t>最大连亏次数:9, 平均连亏:2.7, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0068</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0058</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:17, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0033</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:14, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0053</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0027</t>
+  </si>
+  <si>
+    <t>最大连亏次数:15, 平均连亏:3.0, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:15, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['lower'] = option['tupo_low']  &amp; option['lower_than_ma_lastday'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['higher'] = option['tupo_high']  &amp; option['higher_than_ma_lastday']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:17, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0038</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:12, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0032</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:15, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:14, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:16, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:4.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0053</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        zy = 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['lower'] = option['tupo_low']  &amp; option['lower_than_ma_lastday']</t>
+  </si>
+  <si>
+    <t>ydzs=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ydzs=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        zy = 0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['higher'] = option['tupo_high']  &amp; option['higher_than_ma_lastday'] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以下都是这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>higher lower</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0052</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.004</t>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0047</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:10, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        zs = 0.03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        zs = 0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        zy = 0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大连亏次数:8, 平均连亏:2.9, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0041</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:16, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0062</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:19, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:4.6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:15, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:17, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:15, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:18, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0035</t>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:18, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:29, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:14, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        zy = 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        zs = 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:23, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:5.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:4.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0065</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:15, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0057</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:22, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:4.7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0088</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0078</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:23, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:5.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:4.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:20, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0076</t>
+    </r>
+  </si>
+  <si>
+    <t>最大连亏次数:15, 平均连亏:4.2, 连亏中位数:3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        zy = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        zs = 1 </t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:14, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:29, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:16, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0042</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:21, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:19, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.007</t>
+    </r>
+  </si>
+  <si>
+    <t>exp 0.0062</t>
   </si>
 </sst>
 </file>
@@ -678,7 +4532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -687,6 +4541,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -982,11 +4837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I208" sqref="I208:I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1597,179 +5452,1422 @@
     </row>
     <row r="74" spans="1:9" s="7" customFormat="1" ht="13.5">
       <c r="A74" s="7" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="7" customFormat="1" ht="13.5">
       <c r="A75" s="7" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="7" customFormat="1" ht="13.5">
       <c r="A76" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="6" customFormat="1" ht="13.5">
+      <c r="A77" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E77" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F77" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G77" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H77" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I77" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:8">
+      <c r="A85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="3" customFormat="1"/>
+    <row r="136" spans="1:9">
+      <c r="A136" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="2"/>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="2"/>
+      <c r="D181" s="2"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/report/zdzy.xlsx
+++ b/report/zdzy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="295">
   <si>
     <t>ta</t>
   </si>
@@ -130,7 +130,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>: 1.0053</t>
+      <t>: 1.0032</t>
     </r>
   </si>
   <si>
@@ -145,52 +145,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>: 1.0032</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>均值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>: 1.0047</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>均值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 1.0041</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>均值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 1.0066</t>
     </r>
   </si>
   <si>
@@ -273,7 +228,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">:15, </t>
+      <t xml:space="preserve">:10, </t>
     </r>
     <r>
       <rPr>
@@ -293,7 +248,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">:3.2, </t>
+      <t xml:space="preserve">:2.9, </t>
     </r>
     <r>
       <rPr>
@@ -318,6 +273,21 @@
   </si>
   <si>
     <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0033</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>最大连亏次数</t>
     </r>
     <r>
@@ -328,7 +298,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">:10, </t>
+      <t xml:space="preserve">:16, </t>
     </r>
     <r>
       <rPr>
@@ -348,7 +318,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">:2.9, </t>
+      <t xml:space="preserve">:3.5, </t>
     </r>
     <r>
       <rPr>
@@ -368,440 +338,80 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>:3.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0023</t>
+    </r>
+  </si>
+  <si>
+    <t>success rate: 0.53</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:19, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>:2.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>最大连亏次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:23, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平均连亏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:4.8, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连亏中位数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:4.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>均值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 1.0033</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>最大连亏次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:22, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平均连亏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:3.2, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连亏中位数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:2.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>最大连亏次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:16, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平均连亏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:3.5, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连亏中位数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:3.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>最大连亏次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:9, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平均连亏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:2.7, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连亏中位数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:2.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>均值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 1.0023</t>
-    </r>
-  </si>
-  <si>
-    <t>success rate: 0.53</t>
-  </si>
-  <si>
-    <r>
-      <t>最大连亏次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:9, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平均连亏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:3.1, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连亏中位数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:3.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>最大连亏次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:11, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平均连亏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:3.0, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连亏中位数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:2.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>最大连亏次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:19, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平均连亏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:3.1, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>连亏中位数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:2.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>均值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 1.0042</t>
     </r>
   </si>
   <si>
@@ -3518,13 +3128,904 @@
   </si>
   <si>
     <t>均值: 1.0013</t>
+  </si>
+  <si>
+    <t>均值: 1.0064</t>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0039</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大连亏次数:24, 平均连亏:4.7, 连亏中位数:4.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:22, 平均连亏:3.1, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:16, 平均连亏:3.5, 连亏中位数:3.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:9, 平均连亏:2.7, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0023</t>
+  </si>
+  <si>
+    <t>最大连亏次数:9, 平均连亏:3.1, 连亏中位数:3.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0053</t>
+  </si>
+  <si>
+    <t>最大连亏次数:11, 平均连亏:3.0, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0031</t>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0074</t>
+    </r>
+  </si>
+  <si>
+    <t>success rate: 0.67</t>
+  </si>
+  <si>
+    <t>最大连亏次数:19, 平均连亏:3.0, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0042</t>
+  </si>
+  <si>
+    <t>有持仓时不开仓</t>
+  </si>
+  <si>
+    <t>最大连亏次数:6, 平均连亏:1.9, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0027</t>
+  </si>
+  <si>
+    <t>最大连亏次数:6, 平均连亏:1.8, 连亏中位数:1.5</t>
+  </si>
+  <si>
+    <t>最大连亏次数:5, 平均连亏:1.6, 连亏中位数:1.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0056</t>
+  </si>
+  <si>
+    <t>最大连亏次数:6, 平均连亏:1.9, 连亏中位数:1.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0014</t>
+  </si>
+  <si>
+    <t>最大连亏次数:3, 平均连亏:1.4, 连亏中位数:1.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0065</t>
+  </si>
+  <si>
+    <t>最大连亏次数:10, 平均连亏:1.9, 连亏中位数:1.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0017</t>
+  </si>
+  <si>
+    <t>最大连亏次数:6, 平均连亏:1.8, 连亏中位数:1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if i &lt;= move_j + 2: # 前一次开仓后2天里不开仓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                continue</t>
+  </si>
+  <si>
+    <t>最大连亏次数:8, 平均连亏:2.1, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0058</t>
+  </si>
+  <si>
+    <t>最大连亏次数:12, 平均连亏:2.9, 连亏中位数:2.5</t>
+  </si>
+  <si>
+    <t>均值: 1.0025</t>
+  </si>
+  <si>
+    <t>最大连亏次数:10, 平均连亏:2.4, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:13, 平均连亏:2.5, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>均值: 1.003</t>
+  </si>
+  <si>
+    <t>最大连亏次数:6, 平均连亏:2.4, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0036</t>
+  </si>
+  <si>
+    <t>最大连亏次数:5, 平均连亏:2.3, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0079</t>
+  </si>
+  <si>
+    <t>success rate: 0.68</t>
+  </si>
+  <si>
+    <t>最大连亏次数:8, 平均连亏:2.0, 连亏中位数:1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if i &lt;= move_j + 1: # 前一次开仓后1天里不开仓</t>
+  </si>
+  <si>
+    <t>最大连亏次数:7, 平均连亏:2.2, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0062</t>
+  </si>
+  <si>
+    <t>最大连亏次数:13, 平均连亏:3.5, 连亏中位数:3.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:13, 平均连亏:2.7, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:15, 平均连亏:2.5, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>最大连亏次数:6, 平均连亏:2.0, 连亏中位数:1.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['higher'] = option['tupo_high']  &amp; option['higher_than_ma_lastday'] &amp; option['last_yin']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        df['lower'] = option['tupo_low'] &amp; option['lower_than_ma_lastday']  &amp; option['last_yang']</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0065</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:1.8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.4, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:6, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:1.9, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0044</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:1.7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:1.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0099</t>
+    </r>
+  </si>
+  <si>
+    <t>success rate: 0.72</t>
+  </si>
+  <si>
+    <t>最大连亏次数:8, 平均连亏:2.6, 连亏中位数:2.0</t>
+  </si>
+  <si>
+    <t>均值: 1.0063</t>
+  </si>
+  <si>
+    <t>最大连亏次数:12, 平均连亏:3.6, 连亏中位数:3.0</t>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:13, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.7, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0034</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:12, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:3.0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:13, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.5, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1.0043</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最大连亏次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:12, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均连亏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:2.8, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连亏中位数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:2.0</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3567,6 +4068,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3602,7 +4110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3610,6 +4118,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3905,11 +4415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85:H87"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3946,12 +4456,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1">
         <v>58</v>
@@ -3959,10 +4469,10 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G3" s="1">
         <v>63</v>
@@ -3970,10 +4480,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C4" s="1"/>
       <c r="G4">
@@ -3982,7 +4492,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3992,7 +4502,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4002,7 +4512,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4012,7 +4522,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4022,80 +4532,86 @@
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>52</v>
+        <v>234</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>53</v>
+        <v>235</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4115,7 +4631,7 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -4126,79 +4642,82 @@
       <c r="I15" t="s">
         <v>21</v>
       </c>
+      <c r="J15" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="13.5">
       <c r="A18" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="5" customFormat="1" ht="13.5">
       <c r="A19" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" ht="13.5">
@@ -4218,7 +4737,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>9</v>
@@ -4230,708 +4749,1134 @@
         <v>21</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1">
-      <c r="A21" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1">
-      <c r="A23" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1">
-      <c r="A24" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="7" customFormat="1" ht="13.5">
+      <c r="A21" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A22" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A23" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="25" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A25" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A26" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A27" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A28" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
+      <c r="H29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A30" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A31" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="8" customFormat="1" ht="13.5">
+      <c r="A32" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="8" customFormat="1" ht="13.5">
+      <c r="A33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="8" customFormat="1" ht="13.5">
+      <c r="A34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="3" customFormat="1">
-      <c r="A28" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="3" customFormat="1">
-      <c r="A29" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1">
-      <c r="A33" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="3" customFormat="1">
-      <c r="A34" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" t="s">
-        <v>80</v>
-      </c>
-      <c r="I37" t="s">
-        <v>86</v>
+      <c r="I34" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1">
+      <c r="A37" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1">
       <c r="A38" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="3" customFormat="1">
-      <c r="A39" s="3" t="s">
-        <v>96</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
+      <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>80</v>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1">
+      <c r="A42" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1">
       <c r="A43" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="3" customFormat="1">
-      <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>105</v>
+        <v>39</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
         <v>13</v>
       </c>
-      <c r="B47" t="s">
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s">
         <v>13</v>
       </c>
-      <c r="D47" t="s">
-        <v>14</v>
+    </row>
+    <row r="47" spans="1:9" s="3" customFormat="1">
+      <c r="A47" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1">
       <c r="A48" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="3" customFormat="1">
-      <c r="A49" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="3" customFormat="1">
-      <c r="A50" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="3" customFormat="1">
-      <c r="A51" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="3" customFormat="1">
+      <c r="A52" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="3" customFormat="1">
+      <c r="A53" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="3" customFormat="1">
+      <c r="A57" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="3" customFormat="1">
+      <c r="A58" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
         <v>14</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="6" customFormat="1">
-      <c r="A55" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="6" customFormat="1">
-      <c r="A56" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="6" customFormat="1">
-      <c r="A60" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="6" customFormat="1">
-      <c r="A61" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1">
       <c r="A62" s="3" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1">
       <c r="A63" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="3" customFormat="1">
+      <c r="A64" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="3" customFormat="1">
+      <c r="A65" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
         <v>14</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E68" t="s">
         <v>14</v>
       </c>
-      <c r="E66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="3" customFormat="1">
-      <c r="A67" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="3" customFormat="1">
-      <c r="A68" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="2" t="s">
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="6" customFormat="1">
+      <c r="A69" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="6" customFormat="1">
+      <c r="A70" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="6" customFormat="1">
+      <c r="A74" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="6" customFormat="1">
+      <c r="A75" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="3" customFormat="1">
+      <c r="A76" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="3" customFormat="1">
+      <c r="A77" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="3" customFormat="1">
+      <c r="A81" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="3" customFormat="1">
+      <c r="A82" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="3" customFormat="1">
+      <c r="A86" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="2" t="s">
+    </row>
+    <row r="87" spans="1:10" s="3" customFormat="1">
+      <c r="A87" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="2" t="s">
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D69" s="2" t="s">
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="3" customFormat="1">
+      <c r="A97" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="3" customFormat="1">
+      <c r="A98" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="5" customFormat="1" ht="13.5">
+      <c r="A99" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="5" customFormat="1" ht="13.5">
+      <c r="A100" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="5" customFormat="1" ht="13.5">
+      <c r="A101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="3" customFormat="1">
+      <c r="A103" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="3" customFormat="1">
+      <c r="A104" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="3" customFormat="1">
+      <c r="A108" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="3" customFormat="1">
+      <c r="A109" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="2" t="s">
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C110" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
         <v>16</v>
       </c>
-      <c r="E71" t="s">
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
         <v>14</v>
       </c>
-      <c r="F71" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="3" customFormat="1">
-      <c r="A72" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="3" customFormat="1">
-      <c r="A73" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="3" customFormat="1">
-      <c r="A83" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="3" customFormat="1">
-      <c r="A84" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="5" customFormat="1" ht="13.5">
-      <c r="A85" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="5" customFormat="1" ht="13.5">
-      <c r="A86" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" s="5" customFormat="1" ht="13.5">
-      <c r="A87" s="5" t="s">
+      <c r="H112" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="I112" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>16</v>
+      <c r="J112" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4945,7 +5890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -4953,252 +5898,252 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
